--- a/biology/Zoologie/Eusaurosphargis/Eusaurosphargis.xlsx
+++ b/biology/Zoologie/Eusaurosphargis/Eusaurosphargis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eusaurosphargis dalsassoi
 Eusaurosphargis est un genre éteint de reptiles diapsides, connu à partir du Trias moyen (âges anisien et ladinien) de la formation de Besano du nord de l'Italie et de la formation de Prosanto du sud-est de la Suisse.
@@ -513,7 +525,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype d'Eusaurosphargis dalsassoi (BES SC 390) est un squelette partiel d'un individu isolé désarticulé mais étroitement associé. Le BES SC 390 a été recueilli à partir d'un schiste bitumineux à Cava di Besano de la Formation de Besano (Grenzbitumenzone).
 Ces sédiments lagunaires sont équivalents à ceux de Monte San Giorgio, datant de la limite: Anisien-Ladinien, probablement la dernière Anisien à cet endroit, du début du Trias moyen, environ 243 millions d'années.
@@ -549,7 +563,9 @@
           <t>Signification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eusaurosphargis a été décrit et nommé par Stefania Nosotti et Olivier Rieppel en 2003 et l'éspèce type est Eusaurosphargis dalsassoi.
 Le nom générique est dérivé de grec eu, signifiant "vrai / bien", sauros, signifiant "lézard", et sphargis, l'ancien nom de genre pour la tortue luth, en référence aux nombreuses similitudes qu' Eusaurosphargis partage avec Saurosphargis, un taxon dont l'holotype était perdu et était donc considéré comme un mystère. Comme le nom de Saurosphargis lui-même, il se réfère également à Eusaurosphargis traits apparemment transitoires entre les tortues et d'autres reptiles. Le nom spécifique dalsassoi honore le paléontologue Cristiano Dal Sasso au Musée d'histoire naturelle de Milan, qui fut le premier à réaliser l'importance de BES SC 390.
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
